--- a/biology/Médecine/Raffaello_Silvestrini/Raffaello_Silvestrini.xlsx
+++ b/biology/Médecine/Raffaello_Silvestrini/Raffaello_Silvestrini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raffaello Silvestrini (Pistoie, 17 mai 1868 - Pérouse, 29 juillet 1959) est un médecin italien.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est diplômé de la Faculté de médecine et de chirurgie de l'Université de Pise. Il commença à étudier auprès du professeur Giuseppe Guarnieri puis avec le professeur Pietro Grocco, clinicien, sémiologue qu'il a suivi comme assistant à Florence.
 En 1906, il devint professeur titulaire de pathologie médicale et clinique médicale à l'Université de Pérouse et chef du département médical de l'hôpital de l'Ombrie. Médecin aux diverses intérêts, il a publié 138 articles scientifiques sur de nombreux aspects de la séméiotique clinique et médicale.
-En 1907, il a été initié à la franc-maçonnerie dans la loge «Valle del Chiento» à Camerino (Macerata)[1] et il était un socialiste réformiste participant aux événements politiques de son temps, il a notamment contribué à la création du journal Il Grifo Rosso.
+En 1907, il a été initié à la franc-maçonnerie dans la loge «Valle del Chiento» à Camerino (Macerata) et il était un socialiste réformiste participant aux événements politiques de son temps, il a notamment contribué à la création du journal Il Grifo Rosso.
 Il fut recteur de l'Université de Pérouse de 1914 à 1916 et médecin-chef au front aux batailles de l'Isonzo pendant la Première Guerre mondiale où il commanda le 245e hôpital de campagne pendant plusieurs mois.
 Il retourna à l'enseignement et à la pratique médicale après-guerre. Il a fondé et dirigé jusqu'à sa retraite, la revue scientifique La Diagnosi .
 En 1925, il a mis en évidence le «signe» de la péritonite qui a pris son nom et est encore connu aujourd'hui comme le signe de Silvestrini ; également à cette période, il a défini le syndrome de Silvestrini-Corda avec L. Corda.
 Il signe le manifeste des intellectuels antifascistes promu par Benedetto Croce mais fait ensuite allégeance au roi Victor-Emmanuel III en 1925 et au fascisme en 1931.
-Il a pris sa retraite de professeur en 1938. Il devient ensuite président de l'ONAOSI (Organisation nationale italienne d'assistance de santé aux orphelins) de 1945 à 1957[2].
+Il a pris sa retraite de professeur en 1938. Il devient ensuite président de l'ONAOSI (Organisation nationale italienne d'assistance de santé aux orphelins) de 1945 à 1957.
 Il mourut à Pérouse le 29 juillet 1959.
 </t>
         </is>
@@ -550,7 +564,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital actuel de Pérouse lui était dédié, mais le nom fut changé.
 </t>
